--- a/data/trans_orig/P19C02-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>87801</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72154</v>
+        <v>71652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105981</v>
+        <v>106393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2217680792246413</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.182247123211506</v>
+        <v>0.1809772345568132</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2676868038968818</v>
+        <v>0.2687259100287203</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>157</v>
@@ -765,19 +765,19 @@
         <v>167399</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143556</v>
+        <v>143289</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189794</v>
+        <v>191997</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2291237163217727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1964884329827928</v>
+        <v>0.1961229133984359</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2597757425304056</v>
+        <v>0.2627910102888297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -786,19 +786,19 @@
         <v>255200</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>224809</v>
+        <v>227383</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283702</v>
+        <v>287003</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2265385839317932</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1995602426143166</v>
+        <v>0.2018452117358076</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.251838874044146</v>
+        <v>0.2547696529693597</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>308114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>289934</v>
+        <v>289522</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>323761</v>
+        <v>324263</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7782319207753587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7323131961031182</v>
+        <v>0.7312740899712796</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.817752876788494</v>
+        <v>0.8190227654431868</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>544</v>
@@ -836,19 +836,19 @@
         <v>563207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>540812</v>
+        <v>538609</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>587050</v>
+        <v>587317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7708762836782274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7402242574695944</v>
+        <v>0.737208989711171</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8035115670172073</v>
+        <v>0.8038770866015646</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>852</v>
@@ -857,19 +857,19 @@
         <v>871321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>842819</v>
+        <v>839518</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>901712</v>
+        <v>899138</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7734614160682067</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7481611259558542</v>
+        <v>0.7452303470306402</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8004397573856835</v>
+        <v>0.7981547882641924</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>209882</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>185926</v>
+        <v>185453</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>234621</v>
+        <v>237728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2626399692430732</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2326625403289102</v>
+        <v>0.2320704352783273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2935968237738475</v>
+        <v>0.2974855419346654</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -982,19 +982,19 @@
         <v>245793</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219774</v>
+        <v>220092</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>275040</v>
+        <v>271803</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.289187515146129</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2585747592801233</v>
+        <v>0.2589489671590849</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3235975198727104</v>
+        <v>0.3197891771718406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>441</v>
@@ -1003,19 +1003,19 @@
         <v>455675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>416882</v>
+        <v>421026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>490981</v>
+        <v>493533</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2763227975944267</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2527980945744046</v>
+        <v>0.2553115666918914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2977324534036863</v>
+        <v>0.2992799815359327</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>589243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>564504</v>
+        <v>561397</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>613199</v>
+        <v>613672</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7373600307569268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7064031762261525</v>
+        <v>0.7025144580653357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7673374596710899</v>
+        <v>0.7679295647216727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -1053,19 +1053,19 @@
         <v>604151</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>574904</v>
+        <v>578141</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>630170</v>
+        <v>629852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7108124848538709</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6764024801272897</v>
+        <v>0.6802108228281595</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7414252407198767</v>
+        <v>0.741051032840915</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1166</v>
@@ -1074,19 +1074,19 @@
         <v>1193394</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1158088</v>
+        <v>1155536</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1232187</v>
+        <v>1228043</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7236772024055733</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7022675465963137</v>
+        <v>0.7007200184640671</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7472019054255952</v>
+        <v>0.7446884333081085</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>265280</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>240377</v>
+        <v>236991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>295782</v>
+        <v>292713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2975519111405017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.269619808866031</v>
+        <v>0.2658215398976739</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3317644436030351</v>
+        <v>0.3283223606984758</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -1199,19 +1199,19 @@
         <v>259959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>232522</v>
+        <v>232209</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>285733</v>
+        <v>286681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3141014295692967</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2809504559036715</v>
+        <v>0.2805724262663807</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3452435142617366</v>
+        <v>0.3463887749681387</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>512</v>
@@ -1220,19 +1220,19 @@
         <v>525239</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>486512</v>
+        <v>487611</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>564625</v>
+        <v>564277</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3055190336520593</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2829925977970728</v>
+        <v>0.2836318870775268</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3284288932304132</v>
+        <v>0.3282268694915703</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>626262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>595760</v>
+        <v>598829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651165</v>
+        <v>654551</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7024480888594984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.668235556396965</v>
+        <v>0.671677639301525</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.730380191133969</v>
+        <v>0.7341784601023267</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>564</v>
@@ -1270,19 +1270,19 @@
         <v>567668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541894</v>
+        <v>540946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595105</v>
+        <v>595418</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6858985704307033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6547564857382636</v>
+        <v>0.6536112250318613</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7190495440963285</v>
+        <v>0.7194275737336192</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1182</v>
@@ -1291,19 +1291,19 @@
         <v>1193930</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1154544</v>
+        <v>1154892</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1232657</v>
+        <v>1231558</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6944809663479407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6715711067695869</v>
+        <v>0.6717731305084295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7170074022029274</v>
+        <v>0.7163681129224718</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>134203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116417</v>
+        <v>117723</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153581</v>
+        <v>152164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3947599854021018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3424398164006059</v>
+        <v>0.3462840097658439</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4517588458123061</v>
+        <v>0.4475909851833098</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -1416,19 +1416,19 @@
         <v>112272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96917</v>
+        <v>94890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128414</v>
+        <v>127661</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4043046795772288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3490103553409052</v>
+        <v>0.3417101168789005</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4624364505379628</v>
+        <v>0.4597236472474107</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>241</v>
@@ -1437,19 +1437,19 @@
         <v>246475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223692</v>
+        <v>222537</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>271246</v>
+        <v>271535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3990511926002229</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3621646695591565</v>
+        <v>0.3602951668323294</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4391559802894262</v>
+        <v>0.4396232855929329</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>205759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>186381</v>
+        <v>187798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>223545</v>
+        <v>222239</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6052400145978982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5482411541876937</v>
+        <v>0.5524090148166901</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6575601835993943</v>
+        <v>0.6537159902341562</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>166</v>
@@ -1487,19 +1487,19 @@
         <v>165419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>149277</v>
+        <v>150030</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>180774</v>
+        <v>182801</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5956953204227712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.537563549462037</v>
+        <v>0.5402763527525891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6509896446590948</v>
+        <v>0.6582898831210995</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>366</v>
@@ -1508,19 +1508,19 @@
         <v>371178</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>346407</v>
+        <v>346118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>393961</v>
+        <v>395116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6009488073997771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5608440197105738</v>
+        <v>0.5603767144070672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6378353304408435</v>
+        <v>0.6397048331676707</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>697167</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>650793</v>
+        <v>653341</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>743780</v>
+        <v>743684</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2873085758709466</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2681974858265775</v>
+        <v>0.2692476466393958</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3065185004013296</v>
+        <v>0.3064787975200506</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>763</v>
@@ -1633,19 +1633,19 @@
         <v>785423</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>740473</v>
+        <v>740498</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>832461</v>
+        <v>834567</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2924279848726247</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2756924302541353</v>
+        <v>0.2757013836881072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.309940966905852</v>
+        <v>0.3107253865451133</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1437</v>
@@ -1654,19 +1654,19 @@
         <v>1482590</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1412895</v>
+        <v>1417580</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1549153</v>
+        <v>1548311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2899981202460473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2763657053222776</v>
+        <v>0.2772820082853872</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3030180490437882</v>
+        <v>0.3028533840784111</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1729376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1682763</v>
+        <v>1682859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1775750</v>
+        <v>1773202</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7126914241290534</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6934814995986703</v>
+        <v>0.6935212024799492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.731802514173422</v>
+        <v>0.7307523533606043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1862</v>
@@ -1704,19 +1704,19 @@
         <v>1900445</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1853407</v>
+        <v>1851301</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1945395</v>
+        <v>1945370</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7075720151273753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6900590330941481</v>
+        <v>0.6892746134548868</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7243075697458647</v>
+        <v>0.7242986163118929</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3566</v>
@@ -1725,19 +1725,19 @@
         <v>3629821</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3563258</v>
+        <v>3564100</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3699516</v>
+        <v>3694831</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7100018797539527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6969819509562118</v>
+        <v>0.6971466159215894</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7236342946777223</v>
+        <v>0.7227179917146128</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>196540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>173219</v>
+        <v>171659</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223661</v>
+        <v>222198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2384205992876686</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.210130275680368</v>
+        <v>0.2082370018803271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2713203684917875</v>
+        <v>0.2695451168152729</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>231</v>
@@ -2090,19 +2090,19 @@
         <v>252915</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>223601</v>
+        <v>223036</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>283695</v>
+        <v>282487</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.266937889256742</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.235998549340418</v>
+        <v>0.235402393709778</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2994239415227746</v>
+        <v>0.2981494325237727</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>414</v>
@@ -2111,19 +2111,19 @@
         <v>449456</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>414731</v>
+        <v>410489</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>485336</v>
+        <v>486876</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2536701016091481</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2340717660089652</v>
+        <v>0.2316772995438511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2739205570392215</v>
+        <v>0.2747898252705853</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>627803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>600682</v>
+        <v>602145</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>651124</v>
+        <v>652684</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7615794007123313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7286796315082124</v>
+        <v>0.730454883184727</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7898697243196316</v>
+        <v>0.7917629981196727</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>642</v>
@@ -2161,19 +2161,19 @@
         <v>694554</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>663774</v>
+        <v>664982</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>723868</v>
+        <v>724433</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.733062110743258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7005760584772255</v>
+        <v>0.7018505674762272</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.764001450659582</v>
+        <v>0.764597606290222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1231</v>
@@ -2182,19 +2182,19 @@
         <v>1322357</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1286477</v>
+        <v>1284937</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1357082</v>
+        <v>1361324</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.746329898390852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7260794429607785</v>
+        <v>0.7252101747294148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7659282339910349</v>
+        <v>0.7683227004561493</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>257628</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>232982</v>
+        <v>230540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>287386</v>
+        <v>287157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3064183300659162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2771043170264484</v>
+        <v>0.2741994668463311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.341812202062317</v>
+        <v>0.3415397111462451</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>276</v>
@@ -2307,19 +2307,19 @@
         <v>292499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>265249</v>
+        <v>264366</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>321655</v>
+        <v>321318</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3031875178975199</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2749412419394746</v>
+        <v>0.2740264119773814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3334090821729958</v>
+        <v>0.3330591334688518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>517</v>
@@ -2328,19 +2328,19 @@
         <v>550128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>512712</v>
+        <v>510555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>591256</v>
+        <v>593000</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.304692003776515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2839689848586233</v>
+        <v>0.282774585213908</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3274709344889465</v>
+        <v>0.328436853373665</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>583145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>553387</v>
+        <v>553616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>607791</v>
+        <v>610233</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6935816699340838</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6581877979376831</v>
+        <v>0.658460288853755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7228956829735516</v>
+        <v>0.725800533153669</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>622</v>
@@ -2378,19 +2378,19 @@
         <v>672248</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>643092</v>
+        <v>643429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>699498</v>
+        <v>700381</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6968124821024801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6665909178270042</v>
+        <v>0.6669408665311481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7250587580605253</v>
+        <v>0.7259735880226186</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1181</v>
@@ -2399,19 +2399,19 @@
         <v>1255393</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1214265</v>
+        <v>1212521</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1292809</v>
+        <v>1294966</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.695307996223485</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6725290655110534</v>
+        <v>0.6715631466263351</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7160310151413766</v>
+        <v>0.717225414786092</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>245879</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>219427</v>
+        <v>220826</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>274379</v>
+        <v>271720</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3157211662582489</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2817560867150072</v>
+        <v>0.2835525835879003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3523170801009504</v>
+        <v>0.3489021034978788</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>251</v>
@@ -2524,19 +2524,19 @@
         <v>268746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>243228</v>
+        <v>245624</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>297631</v>
+        <v>297022</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.333391067498182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3017346563947552</v>
+        <v>0.3047074233671704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3692248555731183</v>
+        <v>0.3684685849535864</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>486</v>
@@ -2545,19 +2545,19 @@
         <v>514624</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>480833</v>
+        <v>478188</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>555390</v>
+        <v>551437</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3247083716802814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3033869464608359</v>
+        <v>0.3017182714273978</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.350430011052779</v>
+        <v>0.3479354058045768</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>532906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>504406</v>
+        <v>507065</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>559358</v>
+        <v>557959</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6842788337417511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6476829198990495</v>
+        <v>0.6510978965021211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7182439132849927</v>
+        <v>0.716447416412099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>504</v>
@@ -2595,19 +2595,19 @@
         <v>537352</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>508467</v>
+        <v>509076</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>562870</v>
+        <v>560474</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.666608932501818</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6307751444268814</v>
+        <v>0.6315314150464135</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6982653436052447</v>
+        <v>0.6952925766328294</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1002</v>
@@ -2616,19 +2616,19 @@
         <v>1070258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1029492</v>
+        <v>1033445</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1104049</v>
+        <v>1106694</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6752916283197186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6495699889472208</v>
+        <v>0.6520645941954232</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6966130535391639</v>
+        <v>0.6982817285726023</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>158646</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137388</v>
+        <v>138287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180561</v>
+        <v>178768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3500688999007309</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3031599991175516</v>
+        <v>0.3051433854380912</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3984251789497586</v>
+        <v>0.3944683307879449</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -2741,19 +2741,19 @@
         <v>168040</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145532</v>
+        <v>144945</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189721</v>
+        <v>188206</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4044698806208124</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3502939764402327</v>
+        <v>0.3488804342680514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4566569757655229</v>
+        <v>0.4530086910555824</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>304</v>
@@ -2762,19 +2762,19 @@
         <v>326686</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>295608</v>
+        <v>294248</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>356490</v>
+        <v>357419</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3760879492688964</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3403095885218764</v>
+        <v>0.3387441539736131</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4103988704293303</v>
+        <v>0.4114682655521238</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>294540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272625</v>
+        <v>274418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>315798</v>
+        <v>314899</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6499311000992691</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6015748210502414</v>
+        <v>0.6055316692120556</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6968400008824485</v>
+        <v>0.6948566145619088</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -2812,19 +2812,19 @@
         <v>247417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>225736</v>
+        <v>227251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269925</v>
+        <v>270512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5955301193791875</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5433430242344773</v>
+        <v>0.5469913089444175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6497060235597676</v>
+        <v>0.6511195657319485</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>489</v>
@@ -2833,19 +2833,19 @@
         <v>541957</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>512153</v>
+        <v>511224</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>573035</v>
+        <v>574395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6239120507311036</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5896011295706697</v>
+        <v>0.5885317344478765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6596904114781236</v>
+        <v>0.6612558460263871</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>858694</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>808651</v>
+        <v>810702</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>911636</v>
+        <v>913525</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2963990492163368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2791254861433314</v>
+        <v>0.2798336232990413</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3146734247665426</v>
+        <v>0.3153253155314512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>912</v>
@@ -2958,19 +2958,19 @@
         <v>982200</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>930076</v>
+        <v>927942</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1036102</v>
+        <v>1035744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3134243990944953</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2967914501866341</v>
+        <v>0.2961103457440357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.330624761669238</v>
+        <v>0.3305105443215109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1721</v>
@@ -2979,19 +2979,19 @@
         <v>1840894</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1768334</v>
+        <v>1769770</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1916489</v>
+        <v>1911901</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3052458082987324</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2932143921011749</v>
+        <v>0.2934523732550234</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3177804494009394</v>
+        <v>0.317019732607829</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2038393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1985451</v>
+        <v>1983562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2088436</v>
+        <v>2086385</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7036009507836631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6853265752334574</v>
+        <v>0.6846746844685492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7208745138566687</v>
+        <v>0.7201663767009587</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1992</v>
@@ -3029,19 +3029,19 @@
         <v>2151571</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2097669</v>
+        <v>2098027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2203695</v>
+        <v>2205829</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6865756009055047</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6693752383307621</v>
+        <v>0.6694894556784892</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.703208549813366</v>
+        <v>0.7038896542559643</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3903</v>
@@ -3050,19 +3050,19 @@
         <v>4189964</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4114369</v>
+        <v>4118957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4262524</v>
+        <v>4261088</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6947541917012676</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6822195505990606</v>
+        <v>0.682980267392171</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7067856078988251</v>
+        <v>0.7065476267449767</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>259599</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>234356</v>
+        <v>233020</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284891</v>
+        <v>287102</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3309682207569911</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2987851066827596</v>
+        <v>0.2970820039140293</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3632137350044189</v>
+        <v>0.3660320193859616</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>326</v>
@@ -3415,19 +3415,19 @@
         <v>337373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>308055</v>
+        <v>309309</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>365467</v>
+        <v>368766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3656312277403381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3338575266238451</v>
+        <v>0.3352162086701816</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3960788131298984</v>
+        <v>0.399653306425815</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>574</v>
@@ -3436,19 +3436,19 @@
         <v>596972</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>557071</v>
+        <v>553186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>636158</v>
+        <v>633957</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3497043566755582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3263305969173707</v>
+        <v>0.3240542556075947</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3726590557110511</v>
+        <v>0.3713701634118722</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>524764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>499472</v>
+        <v>497261</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>550007</v>
+        <v>551343</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6690317792430089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6367862649955811</v>
+        <v>0.6339679806140384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7012148933172404</v>
+        <v>0.7029179960859703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>561</v>
@@ -3486,19 +3486,19 @@
         <v>585341</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>557247</v>
+        <v>553948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>614659</v>
+        <v>613405</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6343687722596619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6039211868701012</v>
+        <v>0.6003466935741848</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6661424733761548</v>
+        <v>0.6647837913298184</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1050</v>
@@ -3507,19 +3507,19 @@
         <v>1110105</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1070919</v>
+        <v>1073120</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1150006</v>
+        <v>1153891</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6502956433244418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6273409442889488</v>
+        <v>0.6286298365881281</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.673669403082629</v>
+        <v>0.6759457443924061</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>250664</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>228190</v>
+        <v>224185</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>279616</v>
+        <v>277838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3509136893860446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3194520281661894</v>
+        <v>0.3138449517180787</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.391444617846908</v>
+        <v>0.3889562478452173</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>316</v>
@@ -3632,19 +3632,19 @@
         <v>331622</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>303321</v>
+        <v>302567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>362012</v>
+        <v>359758</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3935310272851784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3599467602151052</v>
+        <v>0.3590529788695013</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4295949795896812</v>
+        <v>0.4269206649728781</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>559</v>
@@ -3653,19 +3653,19 @@
         <v>582285</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>541082</v>
+        <v>544249</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>617729</v>
+        <v>621188</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3739791312598433</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3475157606508876</v>
+        <v>0.3495503184505344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3967435937909198</v>
+        <v>0.3989647709006018</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>463653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>434701</v>
+        <v>436479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486127</v>
+        <v>490132</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6490863106139555</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6085553821530922</v>
+        <v>0.6110437521547828</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6805479718338107</v>
+        <v>0.6861550482819214</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>482</v>
@@ -3703,19 +3703,19 @@
         <v>511060</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>480670</v>
+        <v>482924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>539361</v>
+        <v>540115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6064689727148216</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5704050204103187</v>
+        <v>0.5730793350271219</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6400532397848948</v>
+        <v>0.6409470211304987</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>933</v>
@@ -3724,19 +3724,19 @@
         <v>974714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>939270</v>
+        <v>935811</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1015917</v>
+        <v>1012750</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6260208687401566</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6032564062090802</v>
+        <v>0.6010352290993982</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6524842393491124</v>
+        <v>0.6504496815494654</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>255832</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>231577</v>
+        <v>230049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>284490</v>
+        <v>282461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3572622478271612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3233904159767577</v>
+        <v>0.3212560550419308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3972822497962664</v>
+        <v>0.3944478593700355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>232</v>
@@ -3849,19 +3849,19 @@
         <v>240230</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215346</v>
+        <v>215968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>261880</v>
+        <v>265424</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3645540287979095</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3267918171903587</v>
+        <v>0.3277365749666467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3974088677151933</v>
+        <v>0.4027862133318597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>475</v>
@@ -3870,19 +3870,19 @@
         <v>496062</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>461758</v>
+        <v>458962</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>536416</v>
+        <v>532301</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3607566823422834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3358095824069093</v>
+        <v>0.3337762434974091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.390103519793103</v>
+        <v>0.3871114021129455</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>460259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>431601</v>
+        <v>433630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>484514</v>
+        <v>486042</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6427377521728388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6027177502037336</v>
+        <v>0.6055521406299644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6766095840232423</v>
+        <v>0.6787439449580687</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>396</v>
@@ -3920,19 +3920,19 @@
         <v>418739</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>397089</v>
+        <v>393545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>443623</v>
+        <v>443001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6354459712020905</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6025911322848067</v>
+        <v>0.5972137866681402</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6732081828096411</v>
+        <v>0.6722634250333531</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>836</v>
@@ -3941,19 +3941,19 @@
         <v>878998</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>838644</v>
+        <v>842759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>913302</v>
+        <v>916098</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6392433176577167</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.609896480206897</v>
+        <v>0.6128885978870545</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6641904175930908</v>
+        <v>0.6662237565025909</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>159448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138369</v>
+        <v>138441</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181058</v>
+        <v>180895</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3710211807390536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3219728074989475</v>
+        <v>0.322138944656808</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4213052172804531</v>
+        <v>0.4209267096062957</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -4066,19 +4066,19 @@
         <v>150878</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129708</v>
+        <v>131996</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171704</v>
+        <v>170294</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3497801613364882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3007010175777262</v>
+        <v>0.3060048853283012</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3980598674060982</v>
+        <v>0.3947912291891219</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>290</v>
@@ -4087,19 +4087,19 @@
         <v>310327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>280258</v>
+        <v>280391</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>337829</v>
+        <v>337173</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3603809638444342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3254629982371037</v>
+        <v>0.3256168177645715</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3923196866225259</v>
+        <v>0.3915581211199055</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>270306</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248696</v>
+        <v>248859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>291385</v>
+        <v>291313</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6289788192609463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.578694782719547</v>
+        <v>0.5790732903937043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6780271925010525</v>
+        <v>0.677861055343192</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>261</v>
@@ -4137,19 +4137,19 @@
         <v>280474</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259648</v>
+        <v>261058</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>301644</v>
+        <v>299356</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6502198386635117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6019401325939009</v>
+        <v>0.6052087708108781</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6992989824222736</v>
+        <v>0.6939951146716988</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>511</v>
@@ -4158,19 +4158,19 @@
         <v>550780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>523278</v>
+        <v>523934</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>580849</v>
+        <v>580716</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6396190361555658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6076803133774741</v>
+        <v>0.6084418788800945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6745370017628961</v>
+        <v>0.6743831822354284</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>925543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>873472</v>
+        <v>870621</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>972257</v>
+        <v>971685</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3499845747668854</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3302943598432966</v>
+        <v>0.3292164573014589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3676487546311745</v>
+        <v>0.367432627882449</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1017</v>
@@ -4283,19 +4283,19 @@
         <v>1060103</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1005935</v>
+        <v>1007556</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1115546</v>
+        <v>1111192</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3712212173878924</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3522531069453306</v>
+        <v>0.3528208208334672</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3906360180959879</v>
+        <v>0.3891114912340085</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1898</v>
@@ -4304,19 +4304,19 @@
         <v>1985646</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1919395</v>
+        <v>1916454</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2057385</v>
+        <v>2058991</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3610106044803564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3489655568349491</v>
+        <v>0.3484308407220351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3740535130778106</v>
+        <v>0.3743453972638578</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1718983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1672269</v>
+        <v>1672841</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1771054</v>
+        <v>1773905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6500154252331146</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6323512453688255</v>
+        <v>0.632567372117551</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6697056401567033</v>
+        <v>0.670783542698541</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1700</v>
@@ -4354,19 +4354,19 @@
         <v>1795614</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1740171</v>
+        <v>1744525</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1849782</v>
+        <v>1848161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6287787826121076</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6093639819040121</v>
+        <v>0.6108885087659915</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6477468930546693</v>
+        <v>0.6471791791665327</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3330</v>
@@ -4375,19 +4375,19 @@
         <v>3514597</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3442858</v>
+        <v>3441252</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3580848</v>
+        <v>3583789</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6389893955196436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6259464869221893</v>
+        <v>0.6256546027361422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6510344431650508</v>
+        <v>0.6515691592779647</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>143528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122425</v>
+        <v>119898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>167687</v>
+        <v>166189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3173406900518322</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2706822504503485</v>
+        <v>0.2650934216059629</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3707562787459723</v>
+        <v>0.3674442758842391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>333</v>
@@ -4740,19 +4740,19 @@
         <v>251287</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>230037</v>
+        <v>225382</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>274224</v>
+        <v>272228</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4264931817562928</v>
+        <v>0.4264931817562929</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3904274664477098</v>
+        <v>0.3825258051287658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4654222149185316</v>
+        <v>0.4620358406719982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>452</v>
@@ -4761,19 +4761,19 @@
         <v>394815</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>360279</v>
+        <v>363560</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>424166</v>
+        <v>426138</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3790913787153888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3459310562314047</v>
+        <v>0.3490815980101359</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4072737247944858</v>
+        <v>0.40916710235981</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>308756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284597</v>
+        <v>286095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>329859</v>
+        <v>332386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6826593099481678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6292437212540276</v>
+        <v>0.6325557241157609</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7293177495496515</v>
+        <v>0.7349065783940372</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>484</v>
@@ -4811,19 +4811,19 @@
         <v>337906</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>314969</v>
+        <v>316965</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>359156</v>
+        <v>363811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5735068182437073</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5345777850814685</v>
+        <v>0.5379641593280019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6095725335522905</v>
+        <v>0.6174741948712343</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>777</v>
@@ -4832,19 +4832,19 @@
         <v>646662</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>617311</v>
+        <v>615339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>681198</v>
+        <v>677917</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6209086212846112</v>
+        <v>0.620908621284611</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.592726275205514</v>
+        <v>0.59083289764019</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6540689437685951</v>
+        <v>0.6509184019898641</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>411147</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>378112</v>
+        <v>379848</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>446893</v>
+        <v>443639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4463320457587728</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4104706573767664</v>
+        <v>0.4123549212442292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.485137770514622</v>
+        <v>0.4816047935976014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>700</v>
@@ -4957,19 +4957,19 @@
         <v>517642</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>485261</v>
+        <v>488982</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>544346</v>
+        <v>546717</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4761555609327484</v>
+        <v>0.4761555609327485</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4463695986514231</v>
+        <v>0.4497925239837579</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5007192639458091</v>
+        <v>0.5029001399872007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1072</v>
@@ -4978,19 +4978,19 @@
         <v>928789</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>884151</v>
+        <v>885954</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>975172</v>
+        <v>976746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4624760703712428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.440249263875523</v>
+        <v>0.4411471037098312</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4855717662518413</v>
+        <v>0.4863555476142818</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>510021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>474275</v>
+        <v>477529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>543056</v>
+        <v>541320</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5536679542412272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.514862229485378</v>
+        <v>0.5183952064023986</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5895293426232338</v>
+        <v>0.5876450787557705</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>867</v>
@@ -5028,19 +5028,19 @@
         <v>569486</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>542782</v>
+        <v>540411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>601867</v>
+        <v>598146</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5238444390672515</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4992807360541908</v>
+        <v>0.4970998600127994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5536304013485771</v>
+        <v>0.5502074760162422</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1375</v>
@@ -5049,19 +5049,19 @@
         <v>1079507</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1033124</v>
+        <v>1031550</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1124145</v>
+        <v>1122342</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5375239296287573</v>
+        <v>0.5375239296287572</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5144282337481586</v>
+        <v>0.513644452385718</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5597507361244767</v>
+        <v>0.5588528962901687</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>521641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>488131</v>
+        <v>482180</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>557049</v>
+        <v>554454</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5089585774092955</v>
+        <v>0.5089585774092954</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4762636400813183</v>
+        <v>0.4704569034348798</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5435057479422285</v>
+        <v>0.5409744489221894</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>756</v>
@@ -5174,19 +5174,19 @@
         <v>527457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>498656</v>
+        <v>501308</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>556605</v>
+        <v>557884</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.512042858941581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4840831794914802</v>
+        <v>0.4866581750961436</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5403390311727277</v>
+        <v>0.5415810240829715</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1242</v>
@@ -5195,19 +5195,19 @@
         <v>1049098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1009258</v>
+        <v>1003840</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1097989</v>
+        <v>1090606</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5105046090802099</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4911179034069437</v>
+        <v>0.4884815653862589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5342955090265975</v>
+        <v>0.5307027127743184</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>503277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467869</v>
+        <v>470464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>536787</v>
+        <v>542738</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4910414225907045</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4564942520577714</v>
+        <v>0.4590255510778105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5237363599186816</v>
+        <v>0.5295430965651198</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>737</v>
@@ -5245,19 +5245,19 @@
         <v>502646</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>473498</v>
+        <v>472219</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>531447</v>
+        <v>528795</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.487957141058419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4596609688272723</v>
+        <v>0.4584189759170287</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5159168205085198</v>
+        <v>0.5133418249038564</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -5266,19 +5266,19 @@
         <v>1005924</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>957033</v>
+        <v>964416</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1045764</v>
+        <v>1051182</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.48949539091979</v>
+        <v>0.4894953909197901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4657044909734027</v>
+        <v>0.4692972872256816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5088820965930566</v>
+        <v>0.5115184346137411</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>510353</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>475969</v>
+        <v>478569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>546199</v>
+        <v>546874</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5371983295866534</v>
+        <v>0.5371983295866533</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5010061933211337</v>
+        <v>0.5037424755755188</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5749304912161548</v>
+        <v>0.5756407560305875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>712</v>
@@ -5391,19 +5391,19 @@
         <v>453266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>426525</v>
+        <v>426742</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>479443</v>
+        <v>481011</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5146386738631495</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.484276818527455</v>
+        <v>0.4845228271458999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5443599119038812</v>
+        <v>0.5461405110753633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1198</v>
@@ -5412,19 +5412,19 @@
         <v>963619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>921256</v>
+        <v>923483</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1006634</v>
+        <v>1005191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.526345356811367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5032059458171861</v>
+        <v>0.5044221888882017</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5498408030399449</v>
+        <v>0.5490522784164563</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>439674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>403828</v>
+        <v>403153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>474058</v>
+        <v>471458</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4628016704133466</v>
+        <v>0.4628016704133467</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4250695087838451</v>
+        <v>0.4243592439694123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4989938066788663</v>
+        <v>0.4962575244244811</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>571</v>
@@ -5462,19 +5462,19 @@
         <v>427480</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>401303</v>
+        <v>399735</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>454221</v>
+        <v>454004</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4853613261368505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4556400880961189</v>
+        <v>0.4538594889246366</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.515723181472545</v>
+        <v>0.5154771728541</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1006</v>
@@ -5483,19 +5483,19 @@
         <v>867155</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>824140</v>
+        <v>825583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>909518</v>
+        <v>907291</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4736546431886332</v>
+        <v>0.473654643188633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4501591969600552</v>
+        <v>0.4509477215835437</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4967940541828139</v>
+        <v>0.4955778111117983</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1586669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1521383</v>
+        <v>1525977</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1653243</v>
+        <v>1652552</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4738591993718116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4543616162253735</v>
+        <v>0.4557337144810018</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.493741719155427</v>
+        <v>0.4935352062296616</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2501</v>
@@ -5608,19 +5608,19 @@
         <v>1749652</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1701992</v>
+        <v>1692895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1811372</v>
+        <v>1797666</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4877526507443066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4744663740648944</v>
+        <v>0.4719303305062849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5049583363792403</v>
+        <v>0.501137599723783</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3964</v>
@@ -5629,19 +5629,19 @@
         <v>3336321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3253496</v>
+        <v>3257480</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3418652</v>
+        <v>3425200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4810450831599629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4691030231702142</v>
+        <v>0.4696773649835211</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4929159336583928</v>
+        <v>0.4938599939069631</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1761728</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1695154</v>
+        <v>1695845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1827014</v>
+        <v>1822420</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5261408006281884</v>
+        <v>0.5261408006281885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5062582808445729</v>
+        <v>0.5064647937703384</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5456383837746265</v>
+        <v>0.5442662855189984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2659</v>
@@ -5679,19 +5679,19 @@
         <v>1837519</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1775799</v>
+        <v>1789505</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1885179</v>
+        <v>1894276</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5122473492556933</v>
+        <v>0.5122473492556934</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4950416636207597</v>
+        <v>0.4988624002762169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5255336259351057</v>
+        <v>0.528069669493715</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4416</v>
@@ -5700,19 +5700,19 @@
         <v>3599248</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3516917</v>
+        <v>3510369</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3682073</v>
+        <v>3678089</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.518954916840037</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5070840663416072</v>
+        <v>0.5061400060930368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5308969768297859</v>
+        <v>0.5303226350164789</v>
       </c>
     </row>
     <row r="18">
